--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/存货.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/存货.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>29.23735</v>
-      </c>
-      <c r="C2" t="n">
-        <v>30.38346</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.53253</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01242</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12.67851</v>
-      </c>
-      <c r="G2" t="n">
-        <v>37.32018</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.04502</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15.67246</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.67255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.20198</v>
-      </c>
-      <c r="L2" t="n">
-        <v>10.64644</v>
-      </c>
-      <c r="M2" t="n">
-        <v>7.28367</v>
-      </c>
-      <c r="N2" t="n">
-        <v>42.9571</v>
-      </c>
-      <c r="O2" t="n">
-        <v>22.86128</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.85261</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>40.57454</v>
-      </c>
-      <c r="R2" t="n">
-        <v>16.90403</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>6.76626</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.17431</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.04479</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.23678</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.87213</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>18.13036</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>47.20854</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>20.4378</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>8.14635</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.03894</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>683.84774</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>69.01164</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.03502</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>16.35989</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>45.03584</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>49.65342</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.42315</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>16.38367</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>35.64655</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>16.86849</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>21.47924</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2.05844</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>42.22919</v>
-      </c>
-      <c r="C3" t="n">
-        <v>53.33633</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.59427</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.08917</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20.93638</v>
-      </c>
-      <c r="G3" t="n">
-        <v>65.19449</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.00447</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23.03185</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8.386089999999999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34.28125</v>
-      </c>
-      <c r="L3" t="n">
-        <v>13.44281</v>
-      </c>
-      <c r="M3" t="n">
-        <v>12.65702</v>
-      </c>
-      <c r="N3" t="n">
-        <v>76.59864</v>
-      </c>
-      <c r="O3" t="n">
-        <v>37.33617</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.81366</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>53.39902</v>
-      </c>
-      <c r="R3" t="n">
-        <v>28.1662</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.00228</v>
-      </c>
-      <c r="T3" t="n">
-        <v>11.4389</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.07152</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.13893</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4.32849</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.74374</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>28.18041</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>69.59208</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>30.08584</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>12.16495</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.00283</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1094.21101</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>114.72115</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.09328</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>28.04238</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>68.27025999999999</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>81.82458</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3.23141</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>25.43961</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>56.56532</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>22.99998</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>41.5876</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>3.18846</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>61.3866</v>
-      </c>
-      <c r="C4" t="n">
-        <v>75.13285</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.0814</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0643</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25.24699</v>
-      </c>
-      <c r="G4" t="n">
-        <v>93.56381</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12.05099</v>
-      </c>
-      <c r="I4" t="n">
-        <v>31.51587</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12.37314</v>
-      </c>
-      <c r="K4" t="n">
-        <v>51.79741</v>
-      </c>
-      <c r="L4" t="n">
-        <v>17.6652</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17.73935</v>
-      </c>
-      <c r="N4" t="n">
-        <v>106.05802</v>
-      </c>
-      <c r="O4" t="n">
-        <v>49.61759</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.47604</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>70.14359</v>
-      </c>
-      <c r="R4" t="n">
-        <v>33.84341</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>13.82565</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.04284</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.22086</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.52477</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.13524</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>37.50158</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>97.24583</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>34.09217</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>19.00807</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>1506.35339</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>165.56263</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.03178</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>37.92257</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>96.3486</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>110.61927</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>5.38313</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34.05116</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>78.99803</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>28.10601</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>62.71861</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>5.25803</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
